--- a/dnr_training set.xlsx
+++ b/dnr_training set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrielh/Documents/GitHub/Negative-Regulator-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DF1D444-B1F8-8B46-8342-75E79E1F2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ADD15-918C-2341-A86E-4129EEBB9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" activeTab="2" xr2:uid="{A10B6705-82DD-4D6D-81A0-25CD0C5E2DFB}"/>
+    <workbookView xWindow="10060" yWindow="6240" windowWidth="29080" windowHeight="17080" activeTab="2" xr2:uid="{A10B6705-82DD-4D6D-81A0-25CD0C5E2DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,13 +501,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29952,8 +29952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DA1DC-ADBE-4AC8-B8EB-C67663F7421C}">
   <dimension ref="A1:X549"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X80" sqref="R80:X81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30038,7 +30038,7 @@
       <c r="E3" s="1">
         <v>-7.0408701901917219</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -30123,7 +30123,7 @@
       <c r="E4" s="1">
         <v>-3.4844376796662608</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
         <v>22</v>
@@ -30146,7 +30146,7 @@
       <c r="E5" s="1">
         <v>-4.9335213833006968</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
         <v>23</v>
@@ -30169,7 +30169,7 @@
       <c r="E6" s="1">
         <v>-4.2732821643577772</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
@@ -30249,7 +30249,7 @@
       <c r="E7" s="1">
         <v>-2.9708208168181649</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
         <v>22</v>
@@ -30272,7 +30272,7 @@
       <c r="E8">
         <v>-4.0534949059850724</v>
       </c>
-      <c r="G8" s="40"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17" t="s">
         <v>23</v>
@@ -30301,7 +30301,7 @@
       <c r="E9">
         <v>-3.8092911030568324</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -30386,7 +30386,7 @@
       <c r="E10">
         <v>-4.320491522023076</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -30415,7 +30415,7 @@
       <c r="E11">
         <v>-3.5335199752250794</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
         <v>23</v>
@@ -30438,7 +30438,7 @@
       <c r="E12">
         <v>-3.9693362834278254</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="13" t="s">
         <v>4</v>
       </c>
@@ -30518,7 +30518,7 @@
       <c r="E13">
         <v>-3.3473798470797647</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
         <v>22</v>
@@ -30541,7 +30541,7 @@
       <c r="E14">
         <v>-4.5025585037618114</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
         <v>23</v>
@@ -30570,7 +30570,7 @@
       <c r="E15">
         <v>-4.1743927675179897</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -30655,7 +30655,7 @@
       <c r="E16" s="1">
         <v>-9.1137983616219564</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
         <v>22</v>
@@ -30678,7 +30678,7 @@
       <c r="E17" s="1">
         <v>-6.847206995288488</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
         <v>23</v>
@@ -30701,7 +30701,7 @@
       <c r="E18" s="1">
         <v>-7.961735482396552</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="13" t="s">
         <v>4</v>
       </c>
@@ -30781,7 +30781,7 @@
       <c r="E19" s="1">
         <v>-11.071728121761819</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
         <v>22</v>
@@ -30804,7 +30804,7 @@
       <c r="E20" s="1">
         <v>-9.0128272900580448</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="46"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17" t="s">
         <v>23</v>
@@ -30833,7 +30833,7 @@
       <c r="E21" s="1">
         <v>-11.842488511818235</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="44" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -30918,7 +30918,7 @@
       <c r="E22">
         <v>-9.2855032528102512</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
         <v>22</v>
@@ -30941,7 +30941,7 @@
       <c r="E23">
         <v>-10.037253663473898</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
         <v>23</v>
@@ -30964,7 +30964,7 @@
       <c r="E24">
         <v>-8.5168588109662338</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="13" t="s">
         <v>4</v>
       </c>
@@ -31044,7 +31044,7 @@
       <c r="E25">
         <v>-11.598123800174431</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
         <v>22</v>
@@ -31067,7 +31067,7 @@
       <c r="E26">
         <v>-8.056464814014344</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="46"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
         <v>23</v>
@@ -31096,7 +31096,7 @@
       <c r="E27">
         <v>-13.029079980695943</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="44" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="13" t="s">
@@ -31181,7 +31181,7 @@
       <c r="E28">
         <v>-10.635642907171725</v>
       </c>
-      <c r="G28" s="39"/>
+      <c r="G28" s="45"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
         <v>22</v>
@@ -31204,7 +31204,7 @@
       <c r="E29">
         <v>-10.303370795561975</v>
       </c>
-      <c r="G29" s="39"/>
+      <c r="G29" s="45"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
         <v>23</v>
@@ -31227,7 +31227,7 @@
       <c r="E30" s="1">
         <v>-7.2467110576999261</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="45"/>
       <c r="H30" s="13" t="s">
         <v>4</v>
       </c>
@@ -31307,7 +31307,7 @@
       <c r="E31" s="1">
         <v>-7.7300481367977376</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="45"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
         <v>22</v>
@@ -31330,7 +31330,7 @@
       <c r="E32" s="1">
         <v>-6.6477459299310482</v>
       </c>
-      <c r="G32" s="40"/>
+      <c r="G32" s="46"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
         <v>23</v>
@@ -31359,7 +31359,7 @@
       <c r="E33" s="1">
         <v>-7.7312391652787262</v>
       </c>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="38" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="21" t="s">
@@ -31420,7 +31420,7 @@
       <c r="E34" s="1">
         <v>-6.512275311669903</v>
       </c>
-      <c r="G34" s="45"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="25"/>
       <c r="I34" s="26" t="s">
         <v>22</v>
@@ -31449,7 +31449,7 @@
       <c r="E35" s="1">
         <v>-6.9119271728005813</v>
       </c>
-      <c r="G35" s="45"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26" t="s">
         <v>23</v>
@@ -31478,7 +31478,7 @@
       <c r="E36">
         <v>-6.9095649125795688</v>
       </c>
-      <c r="G36" s="45"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="29" t="s">
         <v>4</v>
       </c>
@@ -31537,7 +31537,7 @@
       <c r="E37">
         <v>-7.0328951391448626</v>
       </c>
-      <c r="G37" s="45"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="25"/>
       <c r="I37" s="26" t="s">
         <v>22</v>
@@ -31566,7 +31566,7 @@
       <c r="E38">
         <v>-6.8291421578033251</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34" t="s">
         <v>23</v>
@@ -31893,7 +31893,7 @@
       <c r="E53">
         <v>-6.2154136645777918</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="44" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -31978,7 +31978,7 @@
       <c r="E54">
         <v>-6.4003158610095028</v>
       </c>
-      <c r="G54" s="39"/>
+      <c r="G54" s="45"/>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
         <v>22</v>
@@ -32001,7 +32001,7 @@
       <c r="E55">
         <v>-6.4144187905400614</v>
       </c>
-      <c r="G55" s="39"/>
+      <c r="G55" s="45"/>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
         <v>23</v>
@@ -32024,7 +32024,7 @@
       <c r="E56">
         <v>-7.6562908145108857</v>
       </c>
-      <c r="G56" s="39"/>
+      <c r="G56" s="45"/>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
@@ -32107,7 +32107,7 @@
       <c r="E57">
         <v>-6.6610582179247828</v>
       </c>
-      <c r="G57" s="39"/>
+      <c r="G57" s="45"/>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
         <v>22</v>
@@ -32130,7 +32130,7 @@
       <c r="E58" s="1">
         <v>-7.2109505258725335</v>
       </c>
-      <c r="G58" s="40"/>
+      <c r="G58" s="46"/>
       <c r="H58" s="16"/>
       <c r="I58" s="17" t="s">
         <v>23</v>
@@ -32159,7 +32159,7 @@
       <c r="E59" s="1">
         <v>-8.6629623181969855</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="44" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="6" t="s">
@@ -32244,7 +32244,7 @@
       <c r="E60" s="1">
         <v>-6.6083957247378997</v>
       </c>
-      <c r="G60" s="39"/>
+      <c r="G60" s="45"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
         <v>22</v>
@@ -32273,7 +32273,7 @@
       <c r="E61" s="1">
         <v>-6.4482926775868314</v>
       </c>
-      <c r="G61" s="39"/>
+      <c r="G61" s="45"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
         <v>23</v>
@@ -32296,7 +32296,7 @@
       <c r="E62" s="1">
         <v>-6.3252028360159294</v>
       </c>
-      <c r="G62" s="39"/>
+      <c r="G62" s="45"/>
       <c r="H62" s="13" t="s">
         <v>4</v>
       </c>
@@ -32376,7 +32376,7 @@
       <c r="E63" s="1">
         <v>-6.7710749451258891</v>
       </c>
-      <c r="G63" s="39"/>
+      <c r="G63" s="45"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
         <v>22</v>
@@ -32399,7 +32399,7 @@
       <c r="E64">
         <v>-7.8983762000248952</v>
       </c>
-      <c r="G64" s="40"/>
+      <c r="G64" s="46"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17" t="s">
         <v>23</v>
@@ -32428,7 +32428,7 @@
       <c r="E65">
         <v>-8.197875544820139</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -32513,7 +32513,7 @@
       <c r="E66">
         <v>-6.4549574365848628</v>
       </c>
-      <c r="G66" s="39"/>
+      <c r="G66" s="45"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
         <v>22</v>
@@ -32536,7 +32536,7 @@
       <c r="E67">
         <v>-8.1645440670620104</v>
       </c>
-      <c r="G67" s="39"/>
+      <c r="G67" s="45"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
         <v>23</v>
@@ -32559,7 +32559,7 @@
       <c r="E68">
         <v>-8.8432058198620709</v>
       </c>
-      <c r="G68" s="39"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="13" t="s">
         <v>4</v>
       </c>
@@ -32639,7 +32639,7 @@
       <c r="E69">
         <v>-8.4684659732208907</v>
       </c>
-      <c r="G69" s="39"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
         <v>22</v>
@@ -32662,7 +32662,7 @@
       <c r="E70">
         <v>-7.4404036891535199</v>
       </c>
-      <c r="G70" s="40"/>
+      <c r="G70" s="46"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17" t="s">
         <v>23</v>
@@ -32691,7 +32691,7 @@
       <c r="E71">
         <v>-7.73011188413561</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="44" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
@@ -32776,7 +32776,7 @@
       <c r="E72" s="1">
         <v>1.3373703938330515</v>
       </c>
-      <c r="G72" s="39"/>
+      <c r="G72" s="45"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
         <v>22</v>
@@ -32799,7 +32799,7 @@
       <c r="E73" s="1">
         <v>-2.3843469403601745</v>
       </c>
-      <c r="G73" s="39"/>
+      <c r="G73" s="45"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
         <v>23</v>
@@ -32822,7 +32822,7 @@
       <c r="E74" s="1">
         <v>-1.4253754181964275</v>
       </c>
-      <c r="G74" s="39"/>
+      <c r="G74" s="45"/>
       <c r="H74" s="13" t="s">
         <v>4</v>
       </c>
@@ -32902,7 +32902,7 @@
       <c r="E75" s="1">
         <v>2.18994201087426</v>
       </c>
-      <c r="G75" s="39"/>
+      <c r="G75" s="45"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
         <v>22</v>
@@ -32925,7 +32925,7 @@
       <c r="E76" s="1">
         <v>0.43393651579142656</v>
       </c>
-      <c r="G76" s="40"/>
+      <c r="G76" s="46"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
         <v>23</v>
@@ -32954,7 +32954,7 @@
       <c r="E77" s="1">
         <v>3.1465882887630041</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="44" t="s">
         <v>7</v>
       </c>
       <c r="H77" s="13" t="s">
@@ -33039,7 +33039,7 @@
       <c r="E78" s="1">
         <v>-1.4839520803385895</v>
       </c>
-      <c r="G78" s="39"/>
+      <c r="G78" s="45"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
         <v>22</v>
@@ -33062,7 +33062,7 @@
       <c r="E79" s="1">
         <v>-2.9806737111615895</v>
       </c>
-      <c r="G79" s="39"/>
+      <c r="G79" s="45"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
         <v>23</v>
@@ -33085,7 +33085,7 @@
       <c r="E80">
         <v>1.9477521662402051</v>
       </c>
-      <c r="G80" s="39"/>
+      <c r="G80" s="45"/>
       <c r="H80" s="13" t="s">
         <v>4</v>
       </c>
@@ -33165,7 +33165,7 @@
       <c r="E81">
         <v>0.46209603187926618</v>
       </c>
-      <c r="G81" s="39"/>
+      <c r="G81" s="45"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
         <v>22</v>
@@ -33188,7 +33188,7 @@
       <c r="E82">
         <v>0.41684877560438593</v>
       </c>
-      <c r="G82" s="40"/>
+      <c r="G82" s="46"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
         <v>23</v>
@@ -41142,6 +41142,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="J40:P40"/>
     <mergeCell ref="J1:P1"/>
@@ -41150,12 +41156,6 @@
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="G27:G32"/>
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/dnr_training set.xlsx
+++ b/dnr_training set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/perrielh/Documents/GitHub/Negative-Regulator-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ADD15-918C-2341-A86E-4129EEBB9E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DBDE25-329B-7445-BDA8-3CC35CBA7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="6240" windowWidth="29080" windowHeight="17080" activeTab="2" xr2:uid="{A10B6705-82DD-4D6D-81A0-25CD0C5E2DFB}"/>
+    <workbookView xWindow="31100" yWindow="2080" windowWidth="25600" windowHeight="17080" activeTab="2" xr2:uid="{A10B6705-82DD-4D6D-81A0-25CD0C5E2DFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,13 +483,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,13 +501,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5844,16 +5844,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>159067</xdr:rowOff>
+      <xdr:rowOff>171767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>21907</xdr:rowOff>
+      <xdr:rowOff>34607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29952,8 +29952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2DA1DC-ADBE-4AC8-B8EB-C67663F7421C}">
   <dimension ref="A1:X549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O85" sqref="O85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P32" sqref="G27:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30038,7 +30038,7 @@
       <c r="E3" s="1">
         <v>-7.0408701901917219</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -30123,7 +30123,7 @@
       <c r="E4" s="1">
         <v>-3.4844376796662608</v>
       </c>
-      <c r="G4" s="45"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
         <v>22</v>
@@ -30146,7 +30146,7 @@
       <c r="E5" s="1">
         <v>-4.9335213833006968</v>
       </c>
-      <c r="G5" s="45"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10" t="s">
         <v>23</v>
@@ -30169,7 +30169,7 @@
       <c r="E6" s="1">
         <v>-4.2732821643577772</v>
       </c>
-      <c r="G6" s="45"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="12" t="s">
         <v>4</v>
       </c>
@@ -30249,7 +30249,7 @@
       <c r="E7" s="1">
         <v>-2.9708208168181649</v>
       </c>
-      <c r="G7" s="45"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10" t="s">
         <v>22</v>
@@ -30272,7 +30272,7 @@
       <c r="E8">
         <v>-4.0534949059850724</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17" t="s">
         <v>23</v>
@@ -30301,7 +30301,7 @@
       <c r="E9">
         <v>-3.8092911030568324</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="38" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -30386,7 +30386,7 @@
       <c r="E10">
         <v>-4.320491522023076</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10" t="s">
         <v>22</v>
@@ -30415,7 +30415,7 @@
       <c r="E11">
         <v>-3.5335199752250794</v>
       </c>
-      <c r="G11" s="45"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10" t="s">
         <v>23</v>
@@ -30438,7 +30438,7 @@
       <c r="E12">
         <v>-3.9693362834278254</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="13" t="s">
         <v>4</v>
       </c>
@@ -30518,7 +30518,7 @@
       <c r="E13">
         <v>-3.3473798470797647</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
         <v>22</v>
@@ -30541,7 +30541,7 @@
       <c r="E14">
         <v>-4.5025585037618114</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17" t="s">
         <v>23</v>
@@ -30570,7 +30570,7 @@
       <c r="E15">
         <v>-4.1743927675179897</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -30655,7 +30655,7 @@
       <c r="E16" s="1">
         <v>-9.1137983616219564</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
         <v>22</v>
@@ -30678,7 +30678,7 @@
       <c r="E17" s="1">
         <v>-6.847206995288488</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
         <v>23</v>
@@ -30701,7 +30701,7 @@
       <c r="E18" s="1">
         <v>-7.961735482396552</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="13" t="s">
         <v>4</v>
       </c>
@@ -30781,7 +30781,7 @@
       <c r="E19" s="1">
         <v>-11.071728121761819</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10" t="s">
         <v>22</v>
@@ -30804,7 +30804,7 @@
       <c r="E20" s="1">
         <v>-9.0128272900580448</v>
       </c>
-      <c r="G20" s="46"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17" t="s">
         <v>23</v>
@@ -30833,7 +30833,7 @@
       <c r="E21" s="1">
         <v>-11.842488511818235</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -30918,7 +30918,7 @@
       <c r="E22">
         <v>-9.2855032528102512</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
         <v>22</v>
@@ -30941,7 +30941,7 @@
       <c r="E23">
         <v>-10.037253663473898</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10" t="s">
         <v>23</v>
@@ -30964,7 +30964,7 @@
       <c r="E24">
         <v>-8.5168588109662338</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="13" t="s">
         <v>4</v>
       </c>
@@ -31044,7 +31044,7 @@
       <c r="E25">
         <v>-11.598123800174431</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10" t="s">
         <v>22</v>
@@ -31067,7 +31067,7 @@
       <c r="E26">
         <v>-8.056464814014344</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
         <v>23</v>
@@ -31096,7 +31096,7 @@
       <c r="E27">
         <v>-13.029079980695943</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="38" t="s">
         <v>7</v>
       </c>
       <c r="H27" s="13" t="s">
@@ -31181,12 +31181,39 @@
       <c r="E28">
         <v>-10.635642907171725</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P28" s="11"/>
+      <c r="J28">
+        <f>STDEV(def3_dnr_0)</f>
+        <v>0.86894374428958665</v>
+      </c>
+      <c r="K28">
+        <f>STDEV(def3_dnr_2)</f>
+        <v>1.5672140649193882</v>
+      </c>
+      <c r="L28">
+        <f>STDEV(def3_dnr_4)</f>
+        <v>1.4655607960961539</v>
+      </c>
+      <c r="M28">
+        <f>STDEV(def3_dnr_8)</f>
+        <v>1.3643950128769642</v>
+      </c>
+      <c r="N28">
+        <f>STDEV(def3_dnr_12)</f>
+        <v>1.3942412151353885</v>
+      </c>
+      <c r="O28">
+        <f>STDEV(def3_dnr_24)</f>
+        <v>1.1744784194393987</v>
+      </c>
+      <c r="P28" s="11">
+        <f>STDEV(def3_dnr_48)</f>
+        <v>1.0211805447464732</v>
+      </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -31204,12 +31231,39 @@
       <c r="E29">
         <v>-10.303370795561975</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="11"/>
+      <c r="J29">
+        <f>COUNT(def3_dnr_0)</f>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f>COUNT(def3_dnr_2)</f>
+        <v>8</v>
+      </c>
+      <c r="L29">
+        <f>COUNT(def3_dnr_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <f>COUNT(def3_dnr_8)</f>
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <f>COUNT(def3_dnr_12)</f>
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <f>COUNT(def3_dnr_24)</f>
+        <v>6</v>
+      </c>
+      <c r="P29" s="11">
+        <f>COUNT(def3_dnr_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -31227,7 +31281,7 @@
       <c r="E30" s="1">
         <v>-7.2467110576999261</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="13" t="s">
         <v>4</v>
       </c>
@@ -31307,12 +31361,39 @@
       <c r="E31" s="1">
         <v>-7.7300481367977376</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="11"/>
+      <c r="J31">
+        <f>STDEV(def3_mal_0)</f>
+        <v>0.7270041307095525</v>
+      </c>
+      <c r="K31">
+        <f>STDEV(def3_mal_2)</f>
+        <v>1.7833951482664312</v>
+      </c>
+      <c r="L31">
+        <f>STDEV(def3_mal_4)</f>
+        <v>1.5411210769810986</v>
+      </c>
+      <c r="M31">
+        <f>STDEV(def3_mal_8)</f>
+        <v>1.2633279330403742</v>
+      </c>
+      <c r="N31">
+        <f>STDEV(def3_mal_12)</f>
+        <v>2.0931745707176135</v>
+      </c>
+      <c r="O31">
+        <f>STDEV(def3_mal_24)</f>
+        <v>0.97947153126799991</v>
+      </c>
+      <c r="P31" s="11">
+        <f>STDEV(def3_mal_48)</f>
+        <v>1.6347506319221861</v>
+      </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
@@ -31330,18 +31411,39 @@
       <c r="E32" s="1">
         <v>-6.6477459299310482</v>
       </c>
-      <c r="G32" s="46"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
+      <c r="J32" s="18">
+        <f>COUNT(def3_mal_0)</f>
+        <v>8</v>
+      </c>
+      <c r="K32" s="18">
+        <f>COUNT(def3_mal_2)</f>
+        <v>8</v>
+      </c>
+      <c r="L32" s="18">
+        <f>COUNT(def3_mal_4)</f>
+        <v>8</v>
+      </c>
+      <c r="M32" s="18">
+        <f>COUNT(def3_mal_8)</f>
+        <v>8</v>
+      </c>
+      <c r="N32" s="18">
+        <f>COUNT(def3_mal_12)</f>
+        <v>8</v>
+      </c>
+      <c r="O32" s="18">
+        <f>COUNT(def3_mal_24)</f>
+        <v>8</v>
+      </c>
+      <c r="P32" s="19">
+        <f>COUNT(def3_mal_48)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -31359,7 +31461,7 @@
       <c r="E33" s="1">
         <v>-7.7312391652787262</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="44" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="21" t="s">
@@ -31420,7 +31522,7 @@
       <c r="E34" s="1">
         <v>-6.512275311669903</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="45"/>
       <c r="H34" s="25"/>
       <c r="I34" s="26" t="s">
         <v>22</v>
@@ -31449,7 +31551,7 @@
       <c r="E35" s="1">
         <v>-6.9119271728005813</v>
       </c>
-      <c r="G35" s="39"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26" t="s">
         <v>23</v>
@@ -31478,7 +31580,7 @@
       <c r="E36">
         <v>-6.9095649125795688</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="45"/>
       <c r="H36" s="29" t="s">
         <v>4</v>
       </c>
@@ -31537,7 +31639,7 @@
       <c r="E37">
         <v>-7.0328951391448626</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="45"/>
       <c r="H37" s="25"/>
       <c r="I37" s="26" t="s">
         <v>22</v>
@@ -31566,7 +31668,7 @@
       <c r="E38">
         <v>-6.8291421578033251</v>
       </c>
-      <c r="G38" s="40"/>
+      <c r="G38" s="46"/>
       <c r="H38" s="33"/>
       <c r="I38" s="34" t="s">
         <v>23</v>
@@ -31893,7 +31995,7 @@
       <c r="E53">
         <v>-6.2154136645777918</v>
       </c>
-      <c r="G53" s="44" t="s">
+      <c r="G53" s="38" t="s">
         <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -31978,7 +32080,7 @@
       <c r="E54">
         <v>-6.4003158610095028</v>
       </c>
-      <c r="G54" s="45"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="9"/>
       <c r="I54" s="10" t="s">
         <v>22</v>
@@ -32001,7 +32103,7 @@
       <c r="E55">
         <v>-6.4144187905400614</v>
       </c>
-      <c r="G55" s="45"/>
+      <c r="G55" s="39"/>
       <c r="H55" s="9"/>
       <c r="I55" s="10" t="s">
         <v>23</v>
@@ -32024,7 +32126,7 @@
       <c r="E56">
         <v>-7.6562908145108857</v>
       </c>
-      <c r="G56" s="45"/>
+      <c r="G56" s="39"/>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
@@ -32107,7 +32209,7 @@
       <c r="E57">
         <v>-6.6610582179247828</v>
       </c>
-      <c r="G57" s="45"/>
+      <c r="G57" s="39"/>
       <c r="H57" s="9"/>
       <c r="I57" s="10" t="s">
         <v>22</v>
@@ -32130,7 +32232,7 @@
       <c r="E58" s="1">
         <v>-7.2109505258725335</v>
       </c>
-      <c r="G58" s="46"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="16"/>
       <c r="I58" s="17" t="s">
         <v>23</v>
@@ -32159,7 +32261,7 @@
       <c r="E59" s="1">
         <v>-8.6629623181969855</v>
       </c>
-      <c r="G59" s="44" t="s">
+      <c r="G59" s="38" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="6" t="s">
@@ -32244,7 +32346,7 @@
       <c r="E60" s="1">
         <v>-6.6083957247378997</v>
       </c>
-      <c r="G60" s="45"/>
+      <c r="G60" s="39"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
         <v>22</v>
@@ -32273,7 +32375,7 @@
       <c r="E61" s="1">
         <v>-6.4482926775868314</v>
       </c>
-      <c r="G61" s="45"/>
+      <c r="G61" s="39"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
         <v>23</v>
@@ -32296,7 +32398,7 @@
       <c r="E62" s="1">
         <v>-6.3252028360159294</v>
       </c>
-      <c r="G62" s="45"/>
+      <c r="G62" s="39"/>
       <c r="H62" s="13" t="s">
         <v>4</v>
       </c>
@@ -32376,7 +32478,7 @@
       <c r="E63" s="1">
         <v>-6.7710749451258891</v>
       </c>
-      <c r="G63" s="45"/>
+      <c r="G63" s="39"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
         <v>22</v>
@@ -32399,7 +32501,7 @@
       <c r="E64">
         <v>-7.8983762000248952</v>
       </c>
-      <c r="G64" s="46"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17" t="s">
         <v>23</v>
@@ -32428,7 +32530,7 @@
       <c r="E65">
         <v>-8.197875544820139</v>
       </c>
-      <c r="G65" s="44" t="s">
+      <c r="G65" s="38" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="6" t="s">
@@ -32513,7 +32615,7 @@
       <c r="E66">
         <v>-6.4549574365848628</v>
       </c>
-      <c r="G66" s="45"/>
+      <c r="G66" s="39"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
         <v>22</v>
@@ -32536,7 +32638,7 @@
       <c r="E67">
         <v>-8.1645440670620104</v>
       </c>
-      <c r="G67" s="45"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
         <v>23</v>
@@ -32559,7 +32661,7 @@
       <c r="E68">
         <v>-8.8432058198620709</v>
       </c>
-      <c r="G68" s="45"/>
+      <c r="G68" s="39"/>
       <c r="H68" s="13" t="s">
         <v>4</v>
       </c>
@@ -32639,7 +32741,7 @@
       <c r="E69">
         <v>-8.4684659732208907</v>
       </c>
-      <c r="G69" s="45"/>
+      <c r="G69" s="39"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
         <v>22</v>
@@ -32662,7 +32764,7 @@
       <c r="E70">
         <v>-7.4404036891535199</v>
       </c>
-      <c r="G70" s="46"/>
+      <c r="G70" s="40"/>
       <c r="H70" s="17"/>
       <c r="I70" s="17" t="s">
         <v>23</v>
@@ -32691,7 +32793,7 @@
       <c r="E71">
         <v>-7.73011188413561</v>
       </c>
-      <c r="G71" s="44" t="s">
+      <c r="G71" s="38" t="s">
         <v>6</v>
       </c>
       <c r="H71" s="6" t="s">
@@ -32776,7 +32878,7 @@
       <c r="E72" s="1">
         <v>1.3373703938330515</v>
       </c>
-      <c r="G72" s="45"/>
+      <c r="G72" s="39"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10" t="s">
         <v>22</v>
@@ -32799,7 +32901,7 @@
       <c r="E73" s="1">
         <v>-2.3843469403601745</v>
       </c>
-      <c r="G73" s="45"/>
+      <c r="G73" s="39"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10" t="s">
         <v>23</v>
@@ -32822,7 +32924,7 @@
       <c r="E74" s="1">
         <v>-1.4253754181964275</v>
       </c>
-      <c r="G74" s="45"/>
+      <c r="G74" s="39"/>
       <c r="H74" s="13" t="s">
         <v>4</v>
       </c>
@@ -32902,7 +33004,7 @@
       <c r="E75" s="1">
         <v>2.18994201087426</v>
       </c>
-      <c r="G75" s="45"/>
+      <c r="G75" s="39"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10" t="s">
         <v>22</v>
@@ -32925,7 +33027,7 @@
       <c r="E76" s="1">
         <v>0.43393651579142656</v>
       </c>
-      <c r="G76" s="46"/>
+      <c r="G76" s="40"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17" t="s">
         <v>23</v>
@@ -32954,7 +33056,7 @@
       <c r="E77" s="1">
         <v>3.1465882887630041</v>
       </c>
-      <c r="G77" s="44" t="s">
+      <c r="G77" s="38" t="s">
         <v>7</v>
       </c>
       <c r="H77" s="13" t="s">
@@ -33039,7 +33141,7 @@
       <c r="E78" s="1">
         <v>-1.4839520803385895</v>
       </c>
-      <c r="G78" s="45"/>
+      <c r="G78" s="39"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10" t="s">
         <v>22</v>
@@ -33062,7 +33164,7 @@
       <c r="E79" s="1">
         <v>-2.9806737111615895</v>
       </c>
-      <c r="G79" s="45"/>
+      <c r="G79" s="39"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10" t="s">
         <v>23</v>
@@ -33085,7 +33187,7 @@
       <c r="E80">
         <v>1.9477521662402051</v>
       </c>
-      <c r="G80" s="45"/>
+      <c r="G80" s="39"/>
       <c r="H80" s="13" t="s">
         <v>4</v>
       </c>
@@ -33165,7 +33267,7 @@
       <c r="E81">
         <v>0.46209603187926618</v>
       </c>
-      <c r="G81" s="45"/>
+      <c r="G81" s="39"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10" t="s">
         <v>22</v>
@@ -33188,7 +33290,7 @@
       <c r="E82">
         <v>0.41684877560438593</v>
       </c>
-      <c r="G82" s="46"/>
+      <c r="G82" s="40"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17" t="s">
         <v>23</v>
@@ -41142,12 +41244,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G77:G82"/>
-    <mergeCell ref="J51:P51"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G65:G70"/>
-    <mergeCell ref="G71:G76"/>
     <mergeCell ref="G33:G38"/>
     <mergeCell ref="J40:P40"/>
     <mergeCell ref="J1:P1"/>
@@ -41156,6 +41252,12 @@
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="G27:G32"/>
+    <mergeCell ref="G77:G82"/>
+    <mergeCell ref="J51:P51"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G65:G70"/>
+    <mergeCell ref="G71:G76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
